--- a/data/trans_dic/P20_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le preocupa el nivel de estrés de sus hijos</t>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>65,13%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>52,75%</t>
+          <t>32,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,57%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>57,9%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,38%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,69%</t>
+          <t>38,65%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>60,68; 69,65</t>
+          <t>36,39; 44,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>47,07; 58,33</t>
+          <t>28,69; 37,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,68; 69,58</t>
+          <t>44,62; 51,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>52,78; 62,11</t>
+          <t>40,41; 47,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>62,51; 68,34</t>
+          <t>41,7; 47,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,96; 59,15</t>
+          <t>35,96; 41,62</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>58,16%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,98%</t>
+          <t>33,69%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>66,05%</t>
+          <t>47,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>62,3%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,2%</t>
+          <t>37,59%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,19; 63,65</t>
+          <t>34,59; 42,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>44,38; 57,81</t>
+          <t>28,71; 38,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,33; 70,25</t>
+          <t>43,46; 51,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>52,19; 62,42</t>
+          <t>37,33; 45,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,02; 65,83</t>
+          <t>39,72; 46,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,52; 58,62</t>
+          <t>34,58; 41,28</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>54,8%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>69,66%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>57,68%</t>
+          <t>44,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>62,28%</t>
+          <t>43,95%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>39,79%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,47; 67,07</t>
+          <t>28,77; 47,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,21; 65,07</t>
+          <t>26,39; 49,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>61,46; 76,68</t>
+          <t>43,3; 58,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,15; 67,94</t>
+          <t>35,58; 52,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,43; 69,15</t>
+          <t>37,65; 49,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>47,74; 63,48</t>
+          <t>33,43; 47,98</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,0%</t>
+          <t>38,37%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>56,86; 64,34</t>
+          <t>36,5; 42,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>47,63; 56,27</t>
+          <t>30,54; 37,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,54; 68,83</t>
+          <t>45,55; 50,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>54,45; 60,88</t>
+          <t>40,01; 45,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,53; 65,94</t>
+          <t>41,77; 45,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,43; 57,51</t>
+          <t>36,09; 40,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>671.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>660981</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>536909</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>859641</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>788789</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1520621</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1325697</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>596811; 728959</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>468959; 606236</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>799153; 919211</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>725684; 855659</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1430902; 1613616</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1233446; 1427761</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>536.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>385.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>534780</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>455892</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>668569</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>561082</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1203348</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1016975</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>479589; 594417</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>388496; 518632</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>612768; 731138</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>504793; 619030</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1110634; 1292625</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>935537; 1116870</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>160385</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>147859</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>206473</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>173959</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>366858</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>321818</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>121652; 199887</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>109119; 202933</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>178357; 240613</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>140612; 207660</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>314264; 413931</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>270393; 388054</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>787.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1350.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>993.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1356145</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1140660</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1734683</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1523829</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3090828</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2664489</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1259187; 1462031</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1038640; 1260684</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1645690; 1824709</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1417756; 1619302</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2950125; 3221197</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2506076; 2800306</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>